--- a/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>-3,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 7,36</t>
+          <t>-13,97; 7,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 13,37</t>
+          <t>-3,19; 19,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 13,79</t>
+          <t>-3,0; 21,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 13,05</t>
+          <t>-2,33; 26,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 26,79</t>
+          <t>-19,4; 11,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 26,79</t>
+          <t>-5,4; 39,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 49,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 66,8</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,63</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,67</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-13,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>-13,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-22,11%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 6,49</t>
+          <t>-9,16; 14,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,15; -4,57</t>
+          <t>-20,45; 2,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -0,6</t>
+          <t>-14,7; 9,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 10,19</t>
+          <t>-27,31; -1,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,07; -6,89</t>
+          <t>-12,81; 25,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -0,73</t>
+          <t>-27,69; 4,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,14; 15,7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-39,02; -2,66</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,81</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,33</t>
+          <t>-20,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-27,06%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36,04%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 32,99</t>
+          <t>-8,17; 55,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 38,91</t>
+          <t>-8,39; 51,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 7,69</t>
+          <t>-42,39; 6,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 67,76</t>
+          <t>-12,34; 50,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 100,7</t>
+          <t>-11,03; 199,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 12,61</t>
+          <t>-12,8; 238,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-50,35; 10,28</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-16,9; 230,31</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,49</t>
+          <t>-6,28; 10,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 4,91</t>
+          <t>-5,37; 10,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 3,6</t>
+          <t>-7,17; 10,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 7,15</t>
+          <t>-8,77; 11,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 8,35</t>
+          <t>-9,02; 18,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 6,09</t>
+          <t>-8,35; 19,52</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 18,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 22,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P37_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,18</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,4%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>14,92%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,61%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.418271425094009</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.245179809393587</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.811768852116074</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.53813060672905</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.02194350019388049</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1284810953600903</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1621352060422457</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2036658972640575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,97; 7,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; 19,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 21,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 26,2</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,4; 11,94</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 39,97</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 49,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 66,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.23346929019339</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.937528905545933</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.388310686925082</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.9275793809836924</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1711964508869578</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.0606903050960822</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.04088725824491821</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.0114380248069025</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.987610631293407</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.40840472709619</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.67461238454492</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.5509675938943</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1521654875341439</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3677266647146781</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4883774577024424</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6982152100318338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-13,99</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,75%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-13,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-6,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-22,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 14,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,45; 2,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,7; 9,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,31; -1,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,81; 25,09</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,69; 4,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-21,14; 15,7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,02; -2,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.568681472818783</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.900802675958742</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.814222628351926</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-13.09238125182072</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1257674535549269</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1437681819434138</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.05895220721397937</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2057674964388486</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>17,7</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-20,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,64%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>39,4%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-27,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>36,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.364006818345394</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-21.71616708087467</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.19210792643682</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-25.84807608775732</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.08762976910735855</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2895040154361793</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2143647998958681</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3726619614328529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 55,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 51,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-42,39; 6,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; 50,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 199,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; 238,6</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-50,35; 10,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-16,9; 230,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>19.83663687011741</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.50044689784222</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.572450171896053</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.9712951123412272</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3887836513661179</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.04263039676115045</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1719235279242382</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.01756430815785508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.93808138374705</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.07345076516169</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-20.78344074366478</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>18.6165498480791</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3098544410943906</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3122173654210153</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2695334284667465</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3897337731835912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 10,62</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 10,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 10,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,77; 11,36</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 18,21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 19,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 18,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; 22,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.553004243828379</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.18100231539358</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-42.05104619440094</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.91282001035439</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1131162240455376</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1744201697160324</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4979425766735135</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1619898407670253</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>56.23672362236996</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>46.42299771109737</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.213491408575819</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>51.07097871588959</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.028257785599781</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.665807172983847</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.114012275153856</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.382229293769666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.146022885470446</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.974372614940755</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.4079807018783521</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.084526646242024</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06679356271966087</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.01593018065272804</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.00666907974774572</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03720356519756914</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.978319539656572</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.157322141252455</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.024076890715891</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.501726794500119</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.05919597702130473</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.0935371717491698</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1077601836109678</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1231947237860416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.76675858153638</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.291123998012706</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.22228280221346</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.06008737415756</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2282038862646944</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1672255835317974</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1848008235046844</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2663566731780143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
